--- a/public/assets/product.xlsx
+++ b/public/assets/product.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\tymart\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>name</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Produk B baru sekali</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -417,144 +420,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="M6" activeCellId="1" sqref="M1:O1 M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1205</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>10000</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>55</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>16</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>100</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>150</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1206</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>10002</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>55</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>20</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>19</v>
       </c>
     </row>

--- a/public/assets/product.xlsx
+++ b/public/assets/product.xlsx
@@ -86,9 +86,6 @@
     <t>Deskripsi Produk B</t>
   </si>
   <si>
-    <t>ean</t>
-  </si>
-  <si>
     <t>Produk A baru sekali</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>ean13</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" activeCellId="1" sqref="M1:O1 M6"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -446,7 +446,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -496,7 +496,7 @@
         <v>1205</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>10000</v>
@@ -514,7 +514,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J2">
         <v>10</v>
@@ -540,7 +540,7 @@
         <v>1206</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>10002</v>
@@ -558,7 +558,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J3">
         <v>20</v>
